--- a/lca_prioritization_input.xlsx
+++ b/lca_prioritization_input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marbulu004\OneDrive - UPV EHU\1_LANA\3_Publikazioak\2022\2022_LCA-toolkit-article\0_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marbulu004\Desktop\FROGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4800" windowHeight="1440" tabRatio="625"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="187">
   <si>
     <t>Description</t>
   </si>
@@ -335,57 +335,12 @@
     <t>Placa PV</t>
   </si>
   <si>
-    <t>A1env</t>
-  </si>
-  <si>
-    <t>A1ec</t>
-  </si>
-  <si>
-    <t>A2env</t>
-  </si>
-  <si>
-    <t>A2ec</t>
-  </si>
-  <si>
-    <t>B1env</t>
-  </si>
-  <si>
-    <t>B1ec</t>
-  </si>
-  <si>
-    <t>B2env</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2ec </t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2 </t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>inx</t>
   </si>
   <si>
     <t>inw</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>th</t>
   </si>
   <si>
@@ -1546,6 +1501,18 @@
   </si>
   <si>
     <t>dm</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>LCPB</t>
+  </si>
+  <si>
+    <t>Life Cycle Payback</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1800,6 +1767,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2081,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,7 +2070,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -2111,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>3</v>
@@ -2122,7 +2095,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>13</v>
@@ -2133,10 +2106,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,7 +2117,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>46</v>
@@ -2155,10 +2128,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,7 +2150,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>46</v>
@@ -2188,7 +2161,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>46</v>
@@ -2199,7 +2172,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>46</v>
@@ -2207,10 +2180,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>46</v>
@@ -2221,7 +2194,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>46</v>
@@ -2232,7 +2205,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>46</v>
@@ -2243,7 +2216,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>46</v>
@@ -2254,7 +2227,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>46</v>
@@ -2265,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>3</v>
@@ -2276,7 +2249,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>3</v>
@@ -2284,21 +2257,21 @@
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>3</v>
@@ -2306,10 +2279,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>35</v>
@@ -2320,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>3</v>
@@ -2331,10 +2304,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,10 +2315,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,7 +2326,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>41</v>
@@ -2364,7 +2337,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>3</v>
@@ -2375,7 +2348,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>13</v>
@@ -2386,10 +2359,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,10 +2370,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,7 +2381,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>45</v>
@@ -2419,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>45</v>
@@ -2430,7 +2403,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>47</v>
@@ -2441,10 +2414,10 @@
         <v>48</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>3</v>
@@ -2463,10 +2436,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,10 +2447,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,10 +2458,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2496,10 +2469,10 @@
         <v>11</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2507,10 +2480,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2518,10 +2491,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2529,10 +2502,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2540,10 +2513,10 @@
         <v>20</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2551,10 +2524,10 @@
         <v>22</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2562,10 +2535,10 @@
         <v>24</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2573,10 +2546,10 @@
         <v>26</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2584,10 +2557,10 @@
         <v>28</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2595,10 +2568,10 @@
         <v>30</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2606,10 +2579,10 @@
         <v>32</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2617,10 +2590,10 @@
         <v>28</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2628,10 +2601,10 @@
         <v>33</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2639,10 +2612,10 @@
         <v>34</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2650,10 +2623,10 @@
         <v>36</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2661,10 +2634,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2672,10 +2645,10 @@
         <v>39</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2683,21 +2656,21 @@
         <v>40</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,10 +2678,10 @@
         <v>43</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,32 +2689,43 @@
         <v>44</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="24" t="s">
+    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2754,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,7 +2799,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>52</v>
@@ -2905,64 +2889,64 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2083.52</v>
+      </c>
+      <c r="C3" s="7">
+        <v>50</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E3" s="29">
+        <v>60.22</v>
+      </c>
+      <c r="F3" s="29">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="29">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29">
+        <v>0</v>
+      </c>
+      <c r="K3" s="29">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29">
+        <v>0</v>
+      </c>
+      <c r="M3" s="29">
+        <v>0</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C3" s="14">
-        <v>50</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E3" s="12">
-        <v>58.54</v>
-      </c>
-      <c r="F3" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="13">
+      <c r="R3" s="30">
         <v>1497.6</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="30">
         <v>1497.6</v>
       </c>
       <c r="U3" s="12">
@@ -2973,962 +2957,118 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C4" s="14">
-        <v>50</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E4" s="12">
-        <v>56.91</v>
-      </c>
-      <c r="F4" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="U4" s="12">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13">
-        <v>0</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="R4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C5" s="14">
-        <v>50</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E5" s="12">
-        <v>60.22</v>
-      </c>
-      <c r="F5" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R5" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="U5" s="12">
-        <v>0</v>
-      </c>
-      <c r="V5" s="13">
-        <v>0</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="R5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C6" s="14">
-        <v>50</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>56.07</v>
-      </c>
-      <c r="F6" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R6" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="U6" s="12">
-        <v>0</v>
-      </c>
-      <c r="V6" s="13">
-        <v>0</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C7" s="14">
-        <v>50</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>55.77</v>
-      </c>
-      <c r="F7" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="12">
-        <v>1.42</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="V7" s="13">
-        <v>1497.6</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="R7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C8" s="14">
-        <v>50</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>57.88</v>
-      </c>
-      <c r="F8" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0.94</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="V8" s="13">
-        <v>1497.6</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="R8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C9" s="14">
-        <v>50</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E9" s="12">
-        <v>58.04</v>
-      </c>
-      <c r="F9" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0.91</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R9" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="V9" s="13">
-        <v>1497.6</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="R9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C10" s="14">
-        <v>50</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="12">
-        <v>57.12</v>
-      </c>
-      <c r="F10" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="12">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R10" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="13">
-        <v>1497.6</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="V10" s="13">
-        <v>1497.6</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="R10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C11" s="14">
-        <v>50</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E11" s="12">
-        <v>55.99</v>
-      </c>
-      <c r="F11" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="13">
-        <v>392.1</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="T11" s="13">
-        <v>392.1</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
-        <v>0</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="R11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="V11" s="13"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C12" s="14">
-        <v>50</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E12" s="12">
-        <v>55.99</v>
-      </c>
-      <c r="F12" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="13">
-        <v>392.1</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="13">
-        <v>392.1</v>
-      </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="R12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="V12" s="13"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C13" s="14">
-        <v>50</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E13" s="12">
-        <v>52.57</v>
-      </c>
-      <c r="F13" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="R13" s="13">
-        <v>392.1</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="13">
-        <v>392.1</v>
-      </c>
-      <c r="U13" s="12">
-        <v>0</v>
-      </c>
-      <c r="V13" s="13">
-        <v>0</v>
-      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="R13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C14" s="14">
-        <v>50</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E14" s="12">
-        <v>52.57</v>
-      </c>
-      <c r="F14" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="R14" s="13">
-        <v>392.1</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="13">
-        <v>392.1</v>
-      </c>
-      <c r="U14" s="12">
-        <v>0</v>
-      </c>
-      <c r="V14" s="13">
-        <v>0</v>
-      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="V14" s="13"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C15" s="14">
-        <v>50</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="F15" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="J15" s="12">
-        <f>16.1-K15</f>
-        <v>4.3520000000000021</v>
-      </c>
-      <c r="K15" s="12">
-        <f>F15*0.6</f>
-        <v>11.747999999999999</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="13">
-        <f>50*2.37</f>
-        <v>118.5</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="13">
-        <v>1</v>
-      </c>
-      <c r="U15" s="12">
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
-        <v>0</v>
-      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="R15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="V15" s="13"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C16" s="14">
-        <v>50</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E16" s="12">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="F16" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G16" s="12">
-        <v>4.74</v>
-      </c>
-      <c r="H16" s="12">
-        <v>3.75</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="13">
-        <v>2</v>
-      </c>
-      <c r="S16" s="12">
-        <v>0</v>
-      </c>
-      <c r="T16" s="13">
-        <v>0</v>
-      </c>
-      <c r="U16" s="12">
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="14">
-        <v>2083.52</v>
-      </c>
-      <c r="C17" s="14">
-        <v>50</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="F17" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G17" s="12">
-        <v>4.74</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3.75</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13">
-        <f>E17/G17</f>
-        <v>14.050632911392404</v>
-      </c>
-      <c r="M17" s="13">
-        <f>F17/H17</f>
-        <v>5.2213333333333329</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="R17" s="13">
-        <v>2</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="T17" s="13">
-        <f>3*28</f>
-        <v>84</v>
-      </c>
-      <c r="U17" s="12">
-        <v>0</v>
-      </c>
-      <c r="V17" s="13">
-        <v>0</v>
-      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="R16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="V17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3939,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,7 +3232,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="G4" s="9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -4361,7 +3501,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>90</v>
@@ -4402,7 +3542,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>91</v>
@@ -4949,6 +4089,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>